--- a/public/files/example.xlsx
+++ b/public/files/example.xlsx
@@ -3,8 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="data" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="result" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="README" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="data" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="result" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +13,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="305">
+  <si>
+    <t>본 파일은 excel to pdf 를 사용하기 위한 예제입니다.</t>
+  </si>
+  <si>
+    <t>시트는 data, result 로 구성되어 있으며 이름이 바뀌면 인식되지 않습니다. (대소문자 구분)</t>
+  </si>
+  <si>
+    <t>data 시트는 도면에 나타낼 그래프의 규격입니다.</t>
+  </si>
+  <si>
+    <t>1. 가로길이와 shell 갯수는 모든 행이 동일해야합니다.</t>
+  </si>
+  <si>
+    <t>2. 그래프 스타일은 현재 두 가지로 개발이 되었습니다.
+  - 1: 한 계단이 교차하는 구조
+  - 2: 두 계단이 교차하는 구조</t>
+  </si>
+  <si>
+    <t>result 시트는 도면에 용접부를 나타내기 위한 규격입니다.</t>
+  </si>
+  <si>
+    <t>모든 용접부는 100x250 의 직사각형 형태입니다.
+세로축의 경우 가로 100, 세로 250 이며,
+가로축의 경우 90도 회전한 가로 250, 세로 100 입니다.</t>
+  </si>
+  <si>
+    <t>A, B 열은 모두 세로 축을 나타냅니다.
+세로축의 좌표는 다음을 의미합니다.
+ex) 7#4#5
+7: 7단에 위치한다는 의미입니다.
+4: 7단에서 4번째 면에 위치한다는 의미입니다.
+5: 7단 4번째 면에서 5번째에 위치한다는 의미입니다.</t>
+  </si>
+  <si>
+    <t>C 열은 가로축을 의미합니다.
+가로축의 좌표는 다음을 의미합니다.
+ex) 5#63
+5: 5단에 위치한다는 의미입니다.
+63: 5단에서 가로축 63번째에 위치한다는 의미입니다.</t>
+  </si>
+  <si>
+    <t>가로축, 세로축의 좌표 규격은 일정해야하며 구분자는 '#' 으로 통일해야합니다.
+데이터가 추가되는 경우 해당 열을 유지하며 아래행에 추가합니다.</t>
+  </si>
   <si>
     <t>단수</t>
   </si>
@@ -903,10 +948,38 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF38761D"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -915,7 +988,6 @@
       <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -927,7 +999,6 @@
       <b/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12.0"/>
@@ -937,7 +1008,6 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -1020,47 +1090,62 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="1" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf borderId="5" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1074,6 +1159,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1279,147 +1368,62 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="2" max="2" width="16.25"/>
-  </cols>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" ht="36.75" customHeight="1">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
+    <row r="10">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5">
-        <v>8.0</v>
-      </c>
-      <c r="C2" s="6">
-        <v>3000.0</v>
-      </c>
-      <c r="D2" s="6">
-        <v>9750.0</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="F2" s="7">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
+    </row>
+    <row r="12">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5">
-        <v>8.0</v>
-      </c>
-      <c r="C3" s="6">
-        <v>3000.0</v>
-      </c>
-      <c r="D3" s="6">
-        <v>9750.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="s">
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5">
-        <v>8.0</v>
-      </c>
-      <c r="C4" s="6">
-        <v>3000.0</v>
-      </c>
-      <c r="D4" s="6">
-        <v>9750.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" s="5">
-        <v>8.0</v>
-      </c>
-      <c r="C5" s="6">
-        <v>3000.0</v>
-      </c>
-      <c r="D5" s="6">
-        <v>9750.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5">
-        <v>8.0</v>
-      </c>
-      <c r="C6" s="6">
-        <v>3000.0</v>
-      </c>
-      <c r="D6" s="6">
-        <v>9750.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="5">
-        <v>8.0</v>
-      </c>
-      <c r="C7" s="6">
-        <v>3000.0</v>
-      </c>
-      <c r="D7" s="6">
-        <v>9750.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="5">
-        <v>8.0</v>
-      </c>
-      <c r="C8" s="6">
-        <v>2500.0</v>
-      </c>
-      <c r="D8" s="6">
-        <v>9750.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="5">
-        <v>8.0</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1500.0</v>
-      </c>
-      <c r="D9" s="6">
-        <v>9750.0</v>
       </c>
     </row>
   </sheetData>
@@ -1435,1700 +1439,3627 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="12.63"/>
+    <col customWidth="1" min="2" max="2" width="16.25"/>
+    <col customWidth="1" min="3" max="6" width="12.63"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" ht="36.75" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="9" t="s">
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="10" t="s">
+      <c r="B2" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="C2" s="11">
+        <v>3000.0</v>
+      </c>
+      <c r="D2" s="11">
+        <v>9750.0</v>
+      </c>
+      <c r="E2" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="F2" s="13">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B3" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="C3" s="11">
+        <v>3000.0</v>
+      </c>
+      <c r="D3" s="11">
+        <v>9750.0</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="B4" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="C4" s="11">
+        <v>3000.0</v>
+      </c>
+      <c r="D4" s="11">
+        <v>9750.0</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="10" t="s">
+      <c r="B5" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="C5" s="11">
+        <v>3000.0</v>
+      </c>
+      <c r="D5" s="11">
+        <v>9750.0</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B6" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="C6" s="11">
+        <v>3000.0</v>
+      </c>
+      <c r="D6" s="11">
+        <v>9750.0</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="B7" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="C7" s="11">
+        <v>3000.0</v>
+      </c>
+      <c r="D7" s="11">
+        <v>9750.0</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="10" t="s">
+      <c r="B8" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="C8" s="11">
+        <v>2500.0</v>
+      </c>
+      <c r="D8" s="11">
+        <v>9750.0</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B9" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="C9" s="11">
+        <v>1500.0</v>
+      </c>
+      <c r="D9" s="11">
+        <v>9750.0</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1"/>
+    <row r="11" ht="15.75" customHeight="1"/>
+    <row r="12" ht="15.75" customHeight="1"/>
+    <row r="13" ht="15.75" customHeight="1"/>
+    <row r="14" ht="15.75" customHeight="1"/>
+    <row r="15" ht="15.75" customHeight="1"/>
+    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="17" ht="15.75" customHeight="1"/>
+    <row r="18" ht="15.75" customHeight="1"/>
+    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="6" width="12.63"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="B1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="12"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="10" t="s">
+      <c r="C1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="10" t="s">
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="B2" s="16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="10" t="s">
+      <c r="C2" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="10" t="s">
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="B3" s="16" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="10" t="s">
+      <c r="C3" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="10" t="s">
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="B4" s="16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="10" t="s">
+      <c r="C4" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="L4" s="18"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="B5" s="16" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="10" t="s">
+      <c r="C5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="10" t="s">
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="B6" s="16" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="10" t="s">
+      <c r="C6" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="10" t="s">
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="B7" s="16" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="10" t="s">
+      <c r="C7" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="10" t="s">
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="B8" s="16" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="10" t="s">
+      <c r="C8" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="10" t="s">
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="B9" s="16" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="10" t="s">
+      <c r="C9" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="10" t="s">
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="B10" s="16" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="10" t="s">
+      <c r="C10" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="10" t="s">
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="B11" s="16" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="10" t="s">
+      <c r="C11" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="10" t="s">
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="B12" s="16" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="10" t="s">
+      <c r="C12" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="10" t="s">
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="B13" s="16" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="10" t="s">
+      <c r="C13" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="10" t="s">
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="B14" s="16" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="10" t="s">
+      <c r="C14" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="10" t="s">
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="B15" s="16" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="10" t="s">
+      <c r="C15" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="10" t="s">
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="B16" s="16" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="10" t="s">
+      <c r="C16" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="10" t="s">
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="B17" s="16" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="10" t="s">
+      <c r="C17" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="10" t="s">
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="B18" s="16" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="10" t="s">
+      <c r="C18" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="10" t="s">
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="B19" s="16" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="10" t="s">
+      <c r="C19" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="10" t="s">
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="B20" s="16" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="10" t="s">
+      <c r="C20" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="10" t="s">
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="B21" s="16" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="10" t="s">
+      <c r="C21" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B25" s="10" t="s">
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="B22" s="16" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="10" t="s">
+      <c r="C22" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B26" s="10" t="s">
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="B23" s="16" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="10" t="s">
+      <c r="C23" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="B27" s="10" t="s">
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="B24" s="16" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="10" t="s">
+      <c r="C24" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="10" t="s">
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="B25" s="16" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="10" t="s">
+      <c r="C25" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="B29" s="10" t="s">
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="B26" s="16" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="10" t="s">
+      <c r="C26" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="10" t="s">
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="10" t="s">
+      <c r="B27" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="10" t="s">
+      <c r="C27" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="10" t="s">
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="10" t="s">
+      <c r="B28" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="10" t="s">
+      <c r="C28" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="10" t="s">
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="10" t="s">
+      <c r="B29" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="10" t="s">
+      <c r="C29" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="10" t="s">
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="10" t="s">
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="10" t="s">
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="10" t="s">
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="10" t="s">
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="10" t="s">
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="10" t="s">
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="10" t="s">
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="10" t="s">
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="10" t="s">
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="10" t="s">
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="10" t="s">
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="10" t="s">
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="10" t="s">
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="10" t="s">
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="10" t="s">
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="10" t="s">
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="10" t="s">
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="10" t="s">
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="10" t="s">
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="10" t="s">
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="10" t="s">
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="10" t="s">
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="10" t="s">
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="10" t="s">
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="10" t="s">
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="10" t="s">
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="10" t="s">
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="10" t="s">
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="10" t="s">
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="10" t="s">
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="10" t="s">
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="B71" s="13"/>
-      <c r="C71" s="13"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="10" t="s">
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="10" t="s">
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="10" t="s">
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="10" t="s">
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="10" t="s">
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="10" t="s">
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="10" t="s">
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="10" t="s">
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="B79" s="13"/>
-      <c r="C79" s="13"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="10" t="s">
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="B80" s="13"/>
-      <c r="C80" s="13"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="10" t="s">
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="10" t="s">
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="B82" s="13"/>
-      <c r="C82" s="13"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="10" t="s">
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="B83" s="13"/>
-      <c r="C83" s="13"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="10" t="s">
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="10" t="s">
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="10" t="s">
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="10" t="s">
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="10" t="s">
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="B88" s="13"/>
-      <c r="C88" s="13"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="10" t="s">
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="B89" s="13"/>
-      <c r="C89" s="13"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="10" t="s">
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="B90" s="13"/>
-      <c r="C90" s="13"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="10" t="s">
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="B91" s="13"/>
-      <c r="C91" s="13"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="10" t="s">
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="B92" s="13"/>
-      <c r="C92" s="13"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="10" t="s">
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="B93" s="13"/>
-      <c r="C93" s="13"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="10" t="s">
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="B94" s="13"/>
-      <c r="C94" s="13"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="10" t="s">
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="B95" s="13"/>
-      <c r="C95" s="13"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="10" t="s">
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="B96" s="13"/>
-      <c r="C96" s="13"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="10" t="s">
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="B97" s="13"/>
-      <c r="C97" s="13"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="10" t="s">
+      <c r="B87" s="16"/>
+      <c r="C87" s="16"/>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="A88" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="B98" s="13"/>
-      <c r="C98" s="13"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="10" t="s">
+      <c r="B88" s="16"/>
+      <c r="C88" s="16"/>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="B99" s="13"/>
-      <c r="C99" s="13"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="10" t="s">
+      <c r="B89" s="16"/>
+      <c r="C89" s="16"/>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="B100" s="13"/>
-      <c r="C100" s="13"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="10" t="s">
+      <c r="B90" s="16"/>
+      <c r="C90" s="16"/>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="A91" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="B101" s="13"/>
-      <c r="C101" s="13"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="10" t="s">
+      <c r="B91" s="16"/>
+      <c r="C91" s="16"/>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="B102" s="13"/>
-      <c r="C102" s="13"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="10" t="s">
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="A93" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="B103" s="13"/>
-      <c r="C103" s="13"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="10" t="s">
+      <c r="B93" s="16"/>
+      <c r="C93" s="16"/>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="A94" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="B104" s="13"/>
-      <c r="C104" s="13"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="10" t="s">
+      <c r="B94" s="16"/>
+      <c r="C94" s="16"/>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="A95" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="B105" s="13"/>
-      <c r="C105" s="13"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="10" t="s">
+      <c r="B95" s="16"/>
+      <c r="C95" s="16"/>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="A96" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="B106" s="13"/>
-      <c r="C106" s="13"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="10" t="s">
+      <c r="B96" s="16"/>
+      <c r="C96" s="16"/>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="A97" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="10" t="s">
+      <c r="B97" s="16"/>
+      <c r="C97" s="16"/>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="A98" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="B108" s="13"/>
-      <c r="C108" s="13"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="10" t="s">
+      <c r="B98" s="16"/>
+      <c r="C98" s="16"/>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="A99" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="B109" s="13"/>
-      <c r="C109" s="13"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="10" t="s">
+      <c r="B99" s="16"/>
+      <c r="C99" s="16"/>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="A100" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="B110" s="13"/>
-      <c r="C110" s="13"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="10" t="s">
+      <c r="B100" s="16"/>
+      <c r="C100" s="16"/>
+    </row>
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="A101" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="B111" s="13"/>
-      <c r="C111" s="13"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="10" t="s">
+      <c r="B101" s="16"/>
+      <c r="C101" s="16"/>
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="A102" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="B112" s="13"/>
-      <c r="C112" s="13"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="10" t="s">
+      <c r="B102" s="16"/>
+      <c r="C102" s="16"/>
+    </row>
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="A103" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="B113" s="13"/>
-      <c r="C113" s="13"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="10" t="s">
+      <c r="B103" s="16"/>
+      <c r="C103" s="16"/>
+    </row>
+    <row r="104" ht="15.75" customHeight="1">
+      <c r="A104" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="B114" s="13"/>
-      <c r="C114" s="13"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="10" t="s">
+      <c r="B104" s="16"/>
+      <c r="C104" s="16"/>
+    </row>
+    <row r="105" ht="15.75" customHeight="1">
+      <c r="A105" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="B115" s="13"/>
-      <c r="C115" s="13"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="10" t="s">
+      <c r="B105" s="16"/>
+      <c r="C105" s="16"/>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="A106" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="B116" s="13"/>
-      <c r="C116" s="13"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="10" t="s">
+      <c r="B106" s="16"/>
+      <c r="C106" s="16"/>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="A107" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B117" s="13"/>
-      <c r="C117" s="13"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="10" t="s">
+      <c r="B107" s="16"/>
+      <c r="C107" s="16"/>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="A108" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="B118" s="13"/>
-      <c r="C118" s="13"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="10" t="s">
+      <c r="B108" s="16"/>
+      <c r="C108" s="16"/>
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="A109" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="B119" s="13"/>
-      <c r="C119" s="13"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="10" t="s">
+      <c r="B109" s="16"/>
+      <c r="C109" s="16"/>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="A110" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="B120" s="13"/>
-      <c r="C120" s="13"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="10" t="s">
+      <c r="B110" s="16"/>
+      <c r="C110" s="16"/>
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="A111" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="B121" s="13"/>
-      <c r="C121" s="13"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="10" t="s">
+      <c r="B111" s="16"/>
+      <c r="C111" s="16"/>
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="A112" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="B122" s="13"/>
-      <c r="C122" s="13"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="10" t="s">
+      <c r="B112" s="16"/>
+      <c r="C112" s="16"/>
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="A113" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="B123" s="13"/>
-      <c r="C123" s="13"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="10" t="s">
+      <c r="B113" s="16"/>
+      <c r="C113" s="16"/>
+    </row>
+    <row r="114" ht="15.75" customHeight="1">
+      <c r="A114" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="B124" s="13"/>
-      <c r="C124" s="13"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="10" t="s">
+      <c r="B114" s="16"/>
+      <c r="C114" s="16"/>
+    </row>
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="A115" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="B125" s="13"/>
-      <c r="C125" s="13"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="10" t="s">
+      <c r="B115" s="16"/>
+      <c r="C115" s="16"/>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="A116" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="B126" s="13"/>
-      <c r="C126" s="13"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="10" t="s">
+      <c r="B116" s="16"/>
+      <c r="C116" s="16"/>
+    </row>
+    <row r="117" ht="15.75" customHeight="1">
+      <c r="A117" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="B127" s="13"/>
-      <c r="C127" s="13"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="10" t="s">
+      <c r="B117" s="16"/>
+      <c r="C117" s="16"/>
+    </row>
+    <row r="118" ht="15.75" customHeight="1">
+      <c r="A118" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="B128" s="13"/>
-      <c r="C128" s="13"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="10" t="s">
+      <c r="B118" s="16"/>
+      <c r="C118" s="16"/>
+    </row>
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="A119" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="B129" s="13"/>
-      <c r="C129" s="13"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="10" t="s">
+      <c r="B119" s="16"/>
+      <c r="C119" s="16"/>
+    </row>
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="A120" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="B130" s="13"/>
-      <c r="C130" s="13"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="10" t="s">
+      <c r="B120" s="16"/>
+      <c r="C120" s="16"/>
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="A121" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="B131" s="13"/>
-      <c r="C131" s="13"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="10" t="s">
+      <c r="B121" s="16"/>
+      <c r="C121" s="16"/>
+    </row>
+    <row r="122" ht="15.75" customHeight="1">
+      <c r="A122" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="B132" s="13"/>
-      <c r="C132" s="13"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="10" t="s">
+      <c r="B122" s="16"/>
+      <c r="C122" s="16"/>
+    </row>
+    <row r="123" ht="15.75" customHeight="1">
+      <c r="A123" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="B133" s="13"/>
-      <c r="C133" s="13"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="10" t="s">
+      <c r="B123" s="16"/>
+      <c r="C123" s="16"/>
+    </row>
+    <row r="124" ht="15.75" customHeight="1">
+      <c r="A124" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="B134" s="13"/>
-      <c r="C134" s="13"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="10" t="s">
+      <c r="B124" s="16"/>
+      <c r="C124" s="16"/>
+    </row>
+    <row r="125" ht="15.75" customHeight="1">
+      <c r="A125" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="B135" s="13"/>
-      <c r="C135" s="13"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="10" t="s">
+      <c r="B125" s="16"/>
+      <c r="C125" s="16"/>
+    </row>
+    <row r="126" ht="15.75" customHeight="1">
+      <c r="A126" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="B136" s="13"/>
-      <c r="C136" s="13"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="10" t="s">
+      <c r="B126" s="16"/>
+      <c r="C126" s="16"/>
+    </row>
+    <row r="127" ht="15.75" customHeight="1">
+      <c r="A127" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="B137" s="13"/>
-      <c r="C137" s="13"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="10" t="s">
+      <c r="B127" s="16"/>
+      <c r="C127" s="16"/>
+    </row>
+    <row r="128" ht="15.75" customHeight="1">
+      <c r="A128" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="B138" s="13"/>
-      <c r="C138" s="13"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="10" t="s">
+      <c r="B128" s="16"/>
+      <c r="C128" s="16"/>
+    </row>
+    <row r="129" ht="15.75" customHeight="1">
+      <c r="A129" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="B139" s="13"/>
-      <c r="C139" s="13"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="10" t="s">
+      <c r="B129" s="16"/>
+      <c r="C129" s="16"/>
+    </row>
+    <row r="130" ht="15.75" customHeight="1">
+      <c r="A130" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="B140" s="13"/>
-      <c r="C140" s="13"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="10" t="s">
+      <c r="B130" s="16"/>
+      <c r="C130" s="16"/>
+    </row>
+    <row r="131" ht="15.75" customHeight="1">
+      <c r="A131" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="B141" s="13"/>
-      <c r="C141" s="13"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="10" t="s">
+      <c r="B131" s="16"/>
+      <c r="C131" s="16"/>
+    </row>
+    <row r="132" ht="15.75" customHeight="1">
+      <c r="A132" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="B142" s="13"/>
-      <c r="C142" s="13"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="10" t="s">
+      <c r="B132" s="16"/>
+      <c r="C132" s="16"/>
+    </row>
+    <row r="133" ht="15.75" customHeight="1">
+      <c r="A133" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="B143" s="13"/>
-      <c r="C143" s="13"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="10" t="s">
+      <c r="B133" s="16"/>
+      <c r="C133" s="16"/>
+    </row>
+    <row r="134" ht="15.75" customHeight="1">
+      <c r="A134" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="B144" s="13"/>
-      <c r="C144" s="13"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="10" t="s">
+      <c r="B134" s="16"/>
+      <c r="C134" s="16"/>
+    </row>
+    <row r="135" ht="15.75" customHeight="1">
+      <c r="A135" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="B145" s="13"/>
-      <c r="C145" s="13"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="10" t="s">
+      <c r="B135" s="16"/>
+      <c r="C135" s="16"/>
+    </row>
+    <row r="136" ht="15.75" customHeight="1">
+      <c r="A136" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="B146" s="13"/>
-      <c r="C146" s="13"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="10" t="s">
+      <c r="B136" s="16"/>
+      <c r="C136" s="16"/>
+    </row>
+    <row r="137" ht="15.75" customHeight="1">
+      <c r="A137" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="B147" s="13"/>
-      <c r="C147" s="13"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="10" t="s">
+      <c r="B137" s="16"/>
+      <c r="C137" s="16"/>
+    </row>
+    <row r="138" ht="15.75" customHeight="1">
+      <c r="A138" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="B148" s="13"/>
-      <c r="C148" s="13"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="10" t="s">
+      <c r="B138" s="16"/>
+      <c r="C138" s="16"/>
+    </row>
+    <row r="139" ht="15.75" customHeight="1">
+      <c r="A139" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="B149" s="13"/>
-      <c r="C149" s="13"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="10" t="s">
+      <c r="B139" s="16"/>
+      <c r="C139" s="16"/>
+    </row>
+    <row r="140" ht="15.75" customHeight="1">
+      <c r="A140" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="B150" s="13"/>
-      <c r="C150" s="13"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="10" t="s">
+      <c r="B140" s="16"/>
+      <c r="C140" s="16"/>
+    </row>
+    <row r="141" ht="15.75" customHeight="1">
+      <c r="A141" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="B151" s="13"/>
-      <c r="C151" s="13"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="10" t="s">
+      <c r="B141" s="16"/>
+      <c r="C141" s="16"/>
+    </row>
+    <row r="142" ht="15.75" customHeight="1">
+      <c r="A142" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="B152" s="13"/>
-      <c r="C152" s="13"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="10" t="s">
+      <c r="B142" s="16"/>
+      <c r="C142" s="16"/>
+    </row>
+    <row r="143" ht="15.75" customHeight="1">
+      <c r="A143" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="B153" s="13"/>
-      <c r="C153" s="13"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="10" t="s">
+      <c r="B143" s="16"/>
+      <c r="C143" s="16"/>
+    </row>
+    <row r="144" ht="15.75" customHeight="1">
+      <c r="A144" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="B154" s="13"/>
-      <c r="C154" s="13"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="10" t="s">
+      <c r="B144" s="16"/>
+      <c r="C144" s="16"/>
+    </row>
+    <row r="145" ht="15.75" customHeight="1">
+      <c r="A145" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="B155" s="13"/>
-      <c r="C155" s="13"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="10" t="s">
+      <c r="B145" s="16"/>
+      <c r="C145" s="16"/>
+    </row>
+    <row r="146" ht="15.75" customHeight="1">
+      <c r="A146" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="B156" s="13"/>
-      <c r="C156" s="13"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="10" t="s">
+      <c r="B146" s="16"/>
+      <c r="C146" s="16"/>
+    </row>
+    <row r="147" ht="15.75" customHeight="1">
+      <c r="A147" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="B157" s="13"/>
-      <c r="C157" s="13"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="10" t="s">
+      <c r="B147" s="16"/>
+      <c r="C147" s="16"/>
+    </row>
+    <row r="148" ht="15.75" customHeight="1">
+      <c r="A148" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="B158" s="13"/>
-      <c r="C158" s="13"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="10" t="s">
+      <c r="B148" s="16"/>
+      <c r="C148" s="16"/>
+    </row>
+    <row r="149" ht="15.75" customHeight="1">
+      <c r="A149" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="B159" s="13"/>
-      <c r="C159" s="13"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="10" t="s">
+      <c r="B149" s="16"/>
+      <c r="C149" s="16"/>
+    </row>
+    <row r="150" ht="15.75" customHeight="1">
+      <c r="A150" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="B160" s="13"/>
-      <c r="C160" s="13"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="10" t="s">
+      <c r="B150" s="16"/>
+      <c r="C150" s="16"/>
+    </row>
+    <row r="151" ht="15.75" customHeight="1">
+      <c r="A151" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="B161" s="13"/>
-      <c r="C161" s="13"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="10" t="s">
+      <c r="B151" s="16"/>
+      <c r="C151" s="16"/>
+    </row>
+    <row r="152" ht="15.75" customHeight="1">
+      <c r="A152" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="B162" s="13"/>
-      <c r="C162" s="13"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="10" t="s">
+      <c r="B152" s="16"/>
+      <c r="C152" s="16"/>
+    </row>
+    <row r="153" ht="15.75" customHeight="1">
+      <c r="A153" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="B163" s="13"/>
-      <c r="C163" s="13"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="10" t="s">
+      <c r="B153" s="16"/>
+      <c r="C153" s="16"/>
+    </row>
+    <row r="154" ht="15.75" customHeight="1">
+      <c r="A154" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="B164" s="13"/>
-      <c r="C164" s="13"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="10" t="s">
+      <c r="B154" s="16"/>
+      <c r="C154" s="16"/>
+    </row>
+    <row r="155" ht="15.75" customHeight="1">
+      <c r="A155" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="B165" s="13"/>
-      <c r="C165" s="13"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="10" t="s">
+      <c r="B155" s="16"/>
+      <c r="C155" s="16"/>
+    </row>
+    <row r="156" ht="15.75" customHeight="1">
+      <c r="A156" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="B166" s="13"/>
-      <c r="C166" s="13"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="10" t="s">
+      <c r="B156" s="16"/>
+      <c r="C156" s="16"/>
+    </row>
+    <row r="157" ht="15.75" customHeight="1">
+      <c r="A157" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="B167" s="13"/>
-      <c r="C167" s="13"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="10" t="s">
+      <c r="B157" s="16"/>
+      <c r="C157" s="16"/>
+    </row>
+    <row r="158" ht="15.75" customHeight="1">
+      <c r="A158" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="B168" s="13"/>
-      <c r="C168" s="13"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="10" t="s">
+      <c r="B158" s="16"/>
+      <c r="C158" s="16"/>
+    </row>
+    <row r="159" ht="15.75" customHeight="1">
+      <c r="A159" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="B169" s="13"/>
-      <c r="C169" s="13"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="10" t="s">
+      <c r="B159" s="16"/>
+      <c r="C159" s="16"/>
+    </row>
+    <row r="160" ht="15.75" customHeight="1">
+      <c r="A160" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="B170" s="13"/>
-      <c r="C170" s="13"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="10" t="s">
+      <c r="B160" s="16"/>
+      <c r="C160" s="16"/>
+    </row>
+    <row r="161" ht="15.75" customHeight="1">
+      <c r="A161" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="B171" s="13"/>
-      <c r="C171" s="13"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="10" t="s">
+      <c r="B161" s="16"/>
+      <c r="C161" s="16"/>
+    </row>
+    <row r="162" ht="15.75" customHeight="1">
+      <c r="A162" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="B172" s="13"/>
-      <c r="C172" s="13"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="10" t="s">
+      <c r="B162" s="16"/>
+      <c r="C162" s="16"/>
+    </row>
+    <row r="163" ht="15.75" customHeight="1">
+      <c r="A163" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="B173" s="13"/>
-      <c r="C173" s="13"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="10" t="s">
+      <c r="B163" s="16"/>
+      <c r="C163" s="16"/>
+    </row>
+    <row r="164" ht="15.75" customHeight="1">
+      <c r="A164" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="B174" s="13"/>
-      <c r="C174" s="13"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="10" t="s">
+      <c r="B164" s="16"/>
+      <c r="C164" s="16"/>
+    </row>
+    <row r="165" ht="15.75" customHeight="1">
+      <c r="A165" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="B175" s="13"/>
-      <c r="C175" s="13"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="10" t="s">
+      <c r="B165" s="16"/>
+      <c r="C165" s="16"/>
+    </row>
+    <row r="166" ht="15.75" customHeight="1">
+      <c r="A166" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="B176" s="13"/>
-      <c r="C176" s="13"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="10" t="s">
+      <c r="B166" s="16"/>
+      <c r="C166" s="16"/>
+    </row>
+    <row r="167" ht="15.75" customHeight="1">
+      <c r="A167" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="B177" s="13"/>
-      <c r="C177" s="13"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="10" t="s">
+      <c r="B167" s="16"/>
+      <c r="C167" s="16"/>
+    </row>
+    <row r="168" ht="15.75" customHeight="1">
+      <c r="A168" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="B178" s="13"/>
-      <c r="C178" s="13"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="10" t="s">
+      <c r="B168" s="16"/>
+      <c r="C168" s="16"/>
+    </row>
+    <row r="169" ht="15.75" customHeight="1">
+      <c r="A169" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="B179" s="13"/>
-      <c r="C179" s="13"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="10" t="s">
+      <c r="B169" s="16"/>
+      <c r="C169" s="16"/>
+    </row>
+    <row r="170" ht="15.75" customHeight="1">
+      <c r="A170" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="B180" s="13"/>
-      <c r="C180" s="13"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="10" t="s">
+      <c r="B170" s="16"/>
+      <c r="C170" s="16"/>
+    </row>
+    <row r="171" ht="15.75" customHeight="1">
+      <c r="A171" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="B181" s="13"/>
-      <c r="C181" s="13"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="10" t="s">
+      <c r="B171" s="16"/>
+      <c r="C171" s="16"/>
+    </row>
+    <row r="172" ht="15.75" customHeight="1">
+      <c r="A172" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="B182" s="13"/>
-      <c r="C182" s="13"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="10" t="s">
+      <c r="B172" s="16"/>
+      <c r="C172" s="16"/>
+    </row>
+    <row r="173" ht="15.75" customHeight="1">
+      <c r="A173" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="B183" s="13"/>
-      <c r="C183" s="13"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="10" t="s">
+      <c r="B173" s="16"/>
+      <c r="C173" s="16"/>
+    </row>
+    <row r="174" ht="15.75" customHeight="1">
+      <c r="A174" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="B184" s="13"/>
-      <c r="C184" s="13"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="10" t="s">
+      <c r="B174" s="16"/>
+      <c r="C174" s="16"/>
+    </row>
+    <row r="175" ht="15.75" customHeight="1">
+      <c r="A175" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="B185" s="13"/>
-      <c r="C185" s="13"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="10" t="s">
+      <c r="B175" s="16"/>
+      <c r="C175" s="16"/>
+    </row>
+    <row r="176" ht="15.75" customHeight="1">
+      <c r="A176" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="B186" s="13"/>
-      <c r="C186" s="13"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="10" t="s">
+      <c r="B176" s="16"/>
+      <c r="C176" s="16"/>
+    </row>
+    <row r="177" ht="15.75" customHeight="1">
+      <c r="A177" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="B187" s="13"/>
-      <c r="C187" s="13"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="10" t="s">
+      <c r="B177" s="16"/>
+      <c r="C177" s="16"/>
+    </row>
+    <row r="178" ht="15.75" customHeight="1">
+      <c r="A178" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="B188" s="13"/>
-      <c r="C188" s="13"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="10" t="s">
+      <c r="B178" s="16"/>
+      <c r="C178" s="16"/>
+    </row>
+    <row r="179" ht="15.75" customHeight="1">
+      <c r="A179" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="B189" s="13"/>
-      <c r="C189" s="13"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="10" t="s">
+      <c r="B179" s="16"/>
+      <c r="C179" s="16"/>
+    </row>
+    <row r="180" ht="15.75" customHeight="1">
+      <c r="A180" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="B190" s="13"/>
-      <c r="C190" s="13"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="10" t="s">
+      <c r="B180" s="16"/>
+      <c r="C180" s="16"/>
+    </row>
+    <row r="181" ht="15.75" customHeight="1">
+      <c r="A181" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="B191" s="13"/>
-      <c r="C191" s="13"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="10" t="s">
+      <c r="B181" s="16"/>
+      <c r="C181" s="16"/>
+    </row>
+    <row r="182" ht="15.75" customHeight="1">
+      <c r="A182" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="B192" s="13"/>
-      <c r="C192" s="13"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="10" t="s">
+      <c r="B182" s="16"/>
+      <c r="C182" s="16"/>
+    </row>
+    <row r="183" ht="15.75" customHeight="1">
+      <c r="A183" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="B193" s="13"/>
-      <c r="C193" s="13"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="10" t="s">
+      <c r="B183" s="16"/>
+      <c r="C183" s="16"/>
+    </row>
+    <row r="184" ht="15.75" customHeight="1">
+      <c r="A184" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="B194" s="13"/>
-      <c r="C194" s="13"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="10" t="s">
+      <c r="B184" s="16"/>
+      <c r="C184" s="16"/>
+    </row>
+    <row r="185" ht="15.75" customHeight="1">
+      <c r="A185" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="B195" s="13"/>
-      <c r="C195" s="13"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="10" t="s">
+      <c r="B185" s="16"/>
+      <c r="C185" s="16"/>
+    </row>
+    <row r="186" ht="15.75" customHeight="1">
+      <c r="A186" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="B196" s="13"/>
-      <c r="C196" s="13"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="10" t="s">
+      <c r="B186" s="16"/>
+      <c r="C186" s="16"/>
+    </row>
+    <row r="187" ht="15.75" customHeight="1">
+      <c r="A187" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="B197" s="13"/>
-      <c r="C197" s="13"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="10" t="s">
+      <c r="B187" s="16"/>
+      <c r="C187" s="16"/>
+    </row>
+    <row r="188" ht="15.75" customHeight="1">
+      <c r="A188" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="B198" s="13"/>
-      <c r="C198" s="13"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="10" t="s">
+      <c r="B188" s="16"/>
+      <c r="C188" s="16"/>
+    </row>
+    <row r="189" ht="15.75" customHeight="1">
+      <c r="A189" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="B199" s="13"/>
-      <c r="C199" s="13"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="10" t="s">
+      <c r="B189" s="16"/>
+      <c r="C189" s="16"/>
+    </row>
+    <row r="190" ht="15.75" customHeight="1">
+      <c r="A190" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="B200" s="13"/>
-      <c r="C200" s="13"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="10" t="s">
+      <c r="B190" s="16"/>
+      <c r="C190" s="16"/>
+    </row>
+    <row r="191" ht="15.75" customHeight="1">
+      <c r="A191" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="B201" s="13"/>
-      <c r="C201" s="13"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="10" t="s">
+      <c r="B191" s="16"/>
+      <c r="C191" s="16"/>
+    </row>
+    <row r="192" ht="15.75" customHeight="1">
+      <c r="A192" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="B202" s="13"/>
-      <c r="C202" s="13"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="10" t="s">
+      <c r="B192" s="16"/>
+      <c r="C192" s="16"/>
+    </row>
+    <row r="193" ht="15.75" customHeight="1">
+      <c r="A193" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="B203" s="13"/>
-      <c r="C203" s="13"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="10" t="s">
+      <c r="B193" s="16"/>
+      <c r="C193" s="16"/>
+    </row>
+    <row r="194" ht="15.75" customHeight="1">
+      <c r="A194" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="B204" s="13"/>
-      <c r="C204" s="13"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="10" t="s">
+      <c r="B194" s="16"/>
+      <c r="C194" s="16"/>
+    </row>
+    <row r="195" ht="15.75" customHeight="1">
+      <c r="A195" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="B205" s="13"/>
-      <c r="C205" s="13"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="10" t="s">
+      <c r="B195" s="16"/>
+      <c r="C195" s="16"/>
+    </row>
+    <row r="196" ht="15.75" customHeight="1">
+      <c r="A196" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="B206" s="13"/>
-      <c r="C206" s="13"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="10" t="s">
+      <c r="B196" s="16"/>
+      <c r="C196" s="16"/>
+    </row>
+    <row r="197" ht="15.75" customHeight="1">
+      <c r="A197" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="B207" s="13"/>
-      <c r="C207" s="13"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="10" t="s">
+      <c r="B197" s="16"/>
+      <c r="C197" s="16"/>
+    </row>
+    <row r="198" ht="15.75" customHeight="1">
+      <c r="A198" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="B208" s="13"/>
-      <c r="C208" s="13"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="10" t="s">
+      <c r="B198" s="16"/>
+      <c r="C198" s="16"/>
+    </row>
+    <row r="199" ht="15.75" customHeight="1">
+      <c r="A199" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="B209" s="13"/>
-      <c r="C209" s="13"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="10" t="s">
+      <c r="B199" s="16"/>
+      <c r="C199" s="16"/>
+    </row>
+    <row r="200" ht="15.75" customHeight="1">
+      <c r="A200" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="B210" s="13"/>
-      <c r="C210" s="13"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="10" t="s">
+      <c r="B200" s="16"/>
+      <c r="C200" s="16"/>
+    </row>
+    <row r="201" ht="15.75" customHeight="1">
+      <c r="A201" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="B211" s="13"/>
-      <c r="C211" s="13"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="10" t="s">
+      <c r="B201" s="16"/>
+      <c r="C201" s="16"/>
+    </row>
+    <row r="202" ht="15.75" customHeight="1">
+      <c r="A202" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="B212" s="13"/>
-      <c r="C212" s="13"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="10" t="s">
+      <c r="B202" s="16"/>
+      <c r="C202" s="16"/>
+    </row>
+    <row r="203" ht="15.75" customHeight="1">
+      <c r="A203" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="B213" s="13"/>
-      <c r="C213" s="13"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="10" t="s">
+      <c r="B203" s="16"/>
+      <c r="C203" s="16"/>
+    </row>
+    <row r="204" ht="15.75" customHeight="1">
+      <c r="A204" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="B214" s="13"/>
-      <c r="C214" s="13"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="10" t="s">
+      <c r="B204" s="16"/>
+      <c r="C204" s="16"/>
+    </row>
+    <row r="205" ht="15.75" customHeight="1">
+      <c r="A205" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="B215" s="13"/>
-      <c r="C215" s="13"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="10" t="s">
+      <c r="B205" s="16"/>
+      <c r="C205" s="16"/>
+    </row>
+    <row r="206" ht="15.75" customHeight="1">
+      <c r="A206" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="B216" s="13"/>
-      <c r="C216" s="13"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="10" t="s">
+      <c r="B206" s="16"/>
+      <c r="C206" s="16"/>
+    </row>
+    <row r="207" ht="15.75" customHeight="1">
+      <c r="A207" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="B217" s="13"/>
-      <c r="C217" s="13"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="10" t="s">
+      <c r="B207" s="16"/>
+      <c r="C207" s="16"/>
+    </row>
+    <row r="208" ht="15.75" customHeight="1">
+      <c r="A208" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="B218" s="13"/>
-      <c r="C218" s="13"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="10" t="s">
+      <c r="B208" s="16"/>
+      <c r="C208" s="16"/>
+    </row>
+    <row r="209" ht="15.75" customHeight="1">
+      <c r="A209" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="B219" s="13"/>
-      <c r="C219" s="13"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B220" s="13"/>
-      <c r="C220" s="13"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B221" s="13"/>
-      <c r="C221" s="13"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="10" t="s">
+      <c r="B209" s="16"/>
+      <c r="C209" s="16"/>
+    </row>
+    <row r="210" ht="15.75" customHeight="1">
+      <c r="A210" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="B222" s="13"/>
-      <c r="C222" s="13"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="10" t="s">
+      <c r="B210" s="16"/>
+      <c r="C210" s="16"/>
+    </row>
+    <row r="211" ht="15.75" customHeight="1">
+      <c r="A211" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="B223" s="13"/>
-      <c r="C223" s="13"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="10" t="s">
+      <c r="B211" s="16"/>
+      <c r="C211" s="16"/>
+    </row>
+    <row r="212" ht="15.75" customHeight="1">
+      <c r="A212" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="B224" s="13"/>
-      <c r="C224" s="13"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="10" t="s">
+      <c r="B212" s="16"/>
+      <c r="C212" s="16"/>
+    </row>
+    <row r="213" ht="15.75" customHeight="1">
+      <c r="A213" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="B225" s="13"/>
-      <c r="C225" s="13"/>
-    </row>
+      <c r="B213" s="16"/>
+      <c r="C213" s="16"/>
+    </row>
+    <row r="214" ht="15.75" customHeight="1">
+      <c r="A214" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="B214" s="16"/>
+      <c r="C214" s="16"/>
+    </row>
+    <row r="215" ht="15.75" customHeight="1">
+      <c r="A215" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="B215" s="16"/>
+      <c r="C215" s="16"/>
+    </row>
+    <row r="216" ht="15.75" customHeight="1">
+      <c r="A216" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="B216" s="16"/>
+      <c r="C216" s="16"/>
+    </row>
+    <row r="217" ht="15.75" customHeight="1">
+      <c r="A217" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="B217" s="16"/>
+      <c r="C217" s="16"/>
+    </row>
+    <row r="218" ht="15.75" customHeight="1">
+      <c r="A218" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="B218" s="16"/>
+      <c r="C218" s="16"/>
+    </row>
+    <row r="219" ht="15.75" customHeight="1">
+      <c r="A219" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="B219" s="16"/>
+      <c r="C219" s="16"/>
+    </row>
+    <row r="220" ht="15.75" customHeight="1">
+      <c r="A220" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B220" s="16"/>
+      <c r="C220" s="16"/>
+    </row>
+    <row r="221" ht="15.75" customHeight="1">
+      <c r="A221" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B221" s="16"/>
+      <c r="C221" s="16"/>
+    </row>
+    <row r="222" ht="15.75" customHeight="1">
+      <c r="A222" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="B222" s="16"/>
+      <c r="C222" s="16"/>
+    </row>
+    <row r="223" ht="15.75" customHeight="1">
+      <c r="A223" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="B223" s="16"/>
+      <c r="C223" s="16"/>
+    </row>
+    <row r="224" ht="15.75" customHeight="1">
+      <c r="A224" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="B224" s="16"/>
+      <c r="C224" s="16"/>
+    </row>
+    <row r="225" ht="15.75" customHeight="1">
+      <c r="A225" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="B225" s="16"/>
+      <c r="C225" s="16"/>
+    </row>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
